--- a/excels/s1changelog.xlsx
+++ b/excels/s1changelog.xlsx
@@ -31,7 +31,7 @@
     <t>a01004.jpg</t>
   </si>
   <si>
-    <t>agb-axvj-jpn-1.jpg</t>
+    <t>agb-axvj-jpn_1.jpg</t>
   </si>
   <si>
     <t>a01006.jpg</t>
@@ -49,7 +49,7 @@
     <t>a01010.jpg</t>
   </si>
   <si>
-    <t>agb-axpj-jpn-2.jpg</t>
+    <t>agb-axpj-jpn_2.jpg</t>
   </si>
   <si>
     <t>a01012.jpg</t>
@@ -91,7 +91,7 @@
     <t>a01024.jpg</t>
   </si>
   <si>
-    <t>agb-br5j-jpn-3.jpg</t>
+    <t>agb-br5j-jpn_3.jpg</t>
   </si>
   <si>
     <t>a01026.jpg</t>
@@ -163,19 +163,19 @@
     <t>a01048.jpg</t>
   </si>
   <si>
-    <t>dmg-ataj-jpn-4.jpg</t>
+    <t>dmg-ataj-jpn_4.jpg</t>
   </si>
   <si>
     <t>a01050.jpg</t>
   </si>
   <si>
-    <t>dmg-ataj-jpn-5.jpg</t>
+    <t>dmg-ataj-jpn_5.jpg</t>
   </si>
   <si>
     <t>a01052.jpg</t>
   </si>
   <si>
-    <t>dmg-ataj-jpn-6.jpg</t>
+    <t>dmg-ataj-jpn_6.jpg</t>
   </si>
   <si>
     <t>a01054.jpg</t>
@@ -187,19 +187,19 @@
     <t>a01056.jpg</t>
   </si>
   <si>
-    <t>dmg-at3j-jpn-7.jpg</t>
+    <t>dmg-at3j-jpn_7.jpg</t>
   </si>
   <si>
     <t>a01058.jpg</t>
   </si>
   <si>
-    <t>dmg-at3j-jpn-8.jpg</t>
+    <t>dmg-at3j-jpn_8.jpg</t>
   </si>
   <si>
     <t>a01060.jpg</t>
   </si>
   <si>
-    <t>dmg-at3j-jpn-9.jpg</t>
+    <t>dmg-at3j-jpn_9.jpg</t>
   </si>
   <si>
     <t>a01062.jpg</t>
@@ -211,13 +211,13 @@
     <t>a01064.jpg</t>
   </si>
   <si>
-    <t>dmg-ytj-10.jpg</t>
+    <t>dmg-ytj_10.jpg</t>
   </si>
   <si>
     <t>a01066.jpg</t>
   </si>
   <si>
-    <t>dmg-ytj-11.jpg</t>
+    <t>dmg-ytj_11.jpg</t>
   </si>
   <si>
     <t>a01068.jpg</t>
@@ -229,37 +229,37 @@
     <t>a01070.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-12.jpg</t>
+    <t>dmg-mla_12.jpg</t>
   </si>
   <si>
     <t>a01072.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-13.jpg</t>
+    <t>dmg-mla_13.jpg</t>
   </si>
   <si>
     <t>a01074.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-14.jpg</t>
+    <t>dmg-mla_14.jpg</t>
   </si>
   <si>
     <t>a01076.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-15.jpg</t>
+    <t>dmg-mla_15.jpg</t>
   </si>
   <si>
     <t>a01078.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-16.jpg</t>
+    <t>dmg-mla_16.jpg</t>
   </si>
   <si>
     <t>a01080.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-17.jpg</t>
+    <t>dmg-mla_17.jpg</t>
   </si>
   <si>
     <t>a01082.jpg</t>
@@ -271,55 +271,55 @@
     <t>a01084.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-18.jpg</t>
+    <t>dmg-l6j_18.jpg</t>
   </si>
   <si>
     <t>a01086.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-19.jpg</t>
+    <t>dmg-l6j_19.jpg</t>
   </si>
   <si>
     <t>a01088.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-20.jpg</t>
+    <t>dmg-l6j_20.jpg</t>
   </si>
   <si>
     <t>a01090.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-21.jpg</t>
+    <t>dmg-l6j_21.jpg</t>
   </si>
   <si>
     <t>a01092.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-22.jpg</t>
+    <t>dmg-l6j_22.jpg</t>
   </si>
   <si>
     <t>a01094.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-23.jpg</t>
+    <t>dmg-l6j_23.jpg</t>
   </si>
   <si>
     <t>a01096.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-24.jpg</t>
+    <t>dmg-l6j_24.jpg</t>
   </si>
   <si>
     <t>a01098.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-25.jpg</t>
+    <t>dmg-l6j_25.jpg</t>
   </si>
   <si>
     <t>a01100.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-26.jpg</t>
+    <t>dmg-l6j_26.jpg</t>
   </si>
   <si>
     <t>a01102.jpg</t>
@@ -331,37 +331,37 @@
     <t>a01104.jpg</t>
   </si>
   <si>
-    <t>dmg-vua-27.jpg</t>
+    <t>dmg-vua_27.jpg</t>
   </si>
   <si>
     <t>a01106.jpg</t>
   </si>
   <si>
-    <t>dmg-vua-28.jpg</t>
+    <t>dmg-vua_28.jpg</t>
   </si>
   <si>
     <t>a01108.jpg</t>
   </si>
   <si>
-    <t>dmg-vua-29.jpg</t>
+    <t>dmg-vua_29.jpg</t>
   </si>
   <si>
     <t>a01110.jpg</t>
   </si>
   <si>
-    <t>dmg-vua-30.jpg</t>
+    <t>dmg-vua_30.jpg</t>
   </si>
   <si>
     <t>a01112.jpg</t>
   </si>
   <si>
-    <t>dmg-vua-31.jpg</t>
+    <t>dmg-vua_31.jpg</t>
   </si>
   <si>
     <t>a01114.jpg</t>
   </si>
   <si>
-    <t>dmg-vua-32.jpg</t>
+    <t>dmg-vua_32.jpg</t>
   </si>
   <si>
     <t>a01116.jpg</t>
@@ -373,7 +373,7 @@
     <t>a01118.jpg</t>
   </si>
   <si>
-    <t>dmg-ap2j-jpn-33.jpg</t>
+    <t>dmg-ap2j-jpn_33.jpg</t>
   </si>
   <si>
     <t>a01120.jpg</t>
@@ -397,13 +397,13 @@
     <t>a01126.jpg</t>
   </si>
   <si>
-    <t>dmg-wja-34.jpg</t>
+    <t>dmg-wja_34.jpg</t>
   </si>
   <si>
     <t>a01128.jpg</t>
   </si>
   <si>
-    <t>dmg-wja-35.jpg</t>
+    <t>dmg-wja_35.jpg</t>
   </si>
   <si>
     <t>a01130.jpg</t>
@@ -427,19 +427,19 @@
     <t>a01136.jpg</t>
   </si>
   <si>
-    <t>dmg-akbj-jpn-36.jpg</t>
+    <t>dmg-akbj-jpn_36.jpg</t>
   </si>
   <si>
     <t>a01138.jpg</t>
   </si>
   <si>
-    <t>dmg-akbj-jpn-37.jpg</t>
+    <t>dmg-akbj-jpn_37.jpg</t>
   </si>
   <si>
     <t>a01140.jpg</t>
   </si>
   <si>
-    <t>dmg-akbj-jpn-38.jpg</t>
+    <t>dmg-akbj-jpn_38.jpg</t>
   </si>
   <si>
     <t>a01142.jpg</t>
@@ -457,13 +457,13 @@
     <t>a01146.jpg</t>
   </si>
   <si>
-    <t>dmg-yoj-39.jpg</t>
+    <t>dmg-yoj_39.jpg</t>
   </si>
   <si>
     <t>a01148.jpg</t>
   </si>
   <si>
-    <t>dmg-yoj-40.jpg</t>
+    <t>dmg-yoj_40.jpg</t>
   </si>
   <si>
     <t>a01150.jpg</t>
@@ -475,25 +475,25 @@
     <t>a01152.jpg</t>
   </si>
   <si>
-    <t>dmg-apsj-jpn-41.jpg</t>
+    <t>dmg-apsj-jpn_41.jpg</t>
   </si>
   <si>
     <t>a01154.jpg</t>
   </si>
   <si>
-    <t>dmg-apsj-jpn-42.jpg</t>
+    <t>dmg-apsj-jpn_42.jpg</t>
   </si>
   <si>
     <t>a01156.jpg</t>
   </si>
   <si>
-    <t>dmg-apsj-jpn-43.jpg</t>
+    <t>dmg-apsj-jpn_43.jpg</t>
   </si>
   <si>
     <t>a01158.jpg</t>
   </si>
   <si>
-    <t>dmg-apsj-jpn-44.jpg</t>
+    <t>dmg-apsj-jpn_44.jpg</t>
   </si>
   <si>
     <t>a01160.jpg</t>
@@ -505,19 +505,19 @@
     <t>a01162.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-45.jpg</t>
+    <t>dmg-apaj-jpn_45.jpg</t>
   </si>
   <si>
     <t>a01164.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-46.jpg</t>
+    <t>dmg-apaj-jpn_46.jpg</t>
   </si>
   <si>
     <t>a01166.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-47.jpg</t>
+    <t>dmg-apaj-jpn_47.jpg</t>
   </si>
   <si>
     <t>a01168.jpg</t>
@@ -529,19 +529,19 @@
     <t>a01170.jpg</t>
   </si>
   <si>
-    <t>dmg-apej-jpn-48.jpg</t>
+    <t>dmg-apej-jpn_48.jpg</t>
   </si>
   <si>
     <t>a01172.jpg</t>
   </si>
   <si>
-    <t>dmg-apej-jpn-49.jpg</t>
+    <t>dmg-apej-jpn_49.jpg</t>
   </si>
   <si>
     <t>a01174.jpg</t>
   </si>
   <si>
-    <t>dmg-apej-jpn-50.jpg</t>
+    <t>dmg-apej-jpn_50.jpg</t>
   </si>
   <si>
     <t>a01176.jpg</t>
@@ -553,61 +553,61 @@
     <t>a01178.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-51.jpg</t>
+    <t>dmg-apbj-jpn_51.jpg</t>
   </si>
   <si>
     <t>a01180.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-52.jpg</t>
+    <t>dmg-apbj-jpn_52.jpg</t>
   </si>
   <si>
     <t>a01182.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-53.jpg</t>
+    <t>dmg-apbj-jpn_53.jpg</t>
   </si>
   <si>
     <t>a01184.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-54.jpg</t>
+    <t>dmg-apbj-jpn_54.jpg</t>
   </si>
   <si>
     <t>a01186.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-55.jpg</t>
+    <t>dmg-apbj-jpn_55.jpg</t>
   </si>
   <si>
     <t>a01188.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-56.jpg</t>
+    <t>dmg-apbj-jpn_56.jpg</t>
   </si>
   <si>
     <t>a01190.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-57.jpg</t>
+    <t>dmg-apbj-jpn_57.jpg</t>
   </si>
   <si>
     <t>a01192.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-58.jpg</t>
+    <t>dmg-apbj-jpn_58.jpg</t>
   </si>
   <si>
     <t>a01194.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-59.jpg</t>
+    <t>dmg-apbj-jpn_59.jpg</t>
   </si>
   <si>
     <t>a01196.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-60.jpg</t>
+    <t>dmg-apbj-jpn_60.jpg</t>
   </si>
   <si>
     <t>a01198.jpg</t>
@@ -619,31 +619,31 @@
     <t>a01200.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-61.jpg</t>
+    <t>dmg-aaxj-jpn_61.jpg</t>
   </si>
   <si>
     <t>a01202.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-62.jpg</t>
+    <t>dmg-aaxj-jpn_62.jpg</t>
   </si>
   <si>
     <t>a01204.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-63.jpg</t>
+    <t>dmg-aaxj-jpn_63.jpg</t>
   </si>
   <si>
     <t>a01206.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-64.jpg</t>
+    <t>dmg-aaxj-jpn_64.jpg</t>
   </si>
   <si>
     <t>a01208.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-65.jpg</t>
+    <t>dmg-aaxj-jpn_65.jpg</t>
   </si>
   <si>
     <t>a01210.jpg</t>
@@ -655,25 +655,25 @@
     <t>a01212.jpg</t>
   </si>
   <si>
-    <t>dmg-aauj-jpn-66.jpg</t>
+    <t>dmg-aauj-jpn_66.jpg</t>
   </si>
   <si>
     <t>a01214.jpg</t>
   </si>
   <si>
-    <t>dmg-aauj-jpn-67.jpg</t>
+    <t>dmg-aauj-jpn_67.jpg</t>
   </si>
   <si>
     <t>a01216.jpg</t>
   </si>
   <si>
-    <t>dmg-aauj-jpn-68.jpg</t>
+    <t>dmg-aauj-jpn_68.jpg</t>
   </si>
   <si>
     <t>a01218.jpg</t>
   </si>
   <si>
-    <t>dmg-aauj-jpn-69.jpg</t>
+    <t>dmg-aauj-jpn_69.jpg</t>
   </si>
   <si>
     <t>a01220.jpg</t>
@@ -685,25 +685,25 @@
     <t>a01222.jpg</t>
   </si>
   <si>
-    <t>dmg-acxj-jpn-70.jpg</t>
+    <t>dmg-acxj-jpn_70.jpg</t>
   </si>
   <si>
     <t>a01224.jpg</t>
   </si>
   <si>
-    <t>dmg-acxj-jpn-71.jpg</t>
+    <t>dmg-acxj-jpn_71.jpg</t>
   </si>
   <si>
     <t>a01226.jpg</t>
   </si>
   <si>
-    <t>dmg-acxj-jpn-72.jpg</t>
+    <t>dmg-acxj-jpn_72.jpg</t>
   </si>
   <si>
     <t>a01228.jpg</t>
   </si>
   <si>
-    <t>dmg-acxj-jpn-73.jpg</t>
+    <t>dmg-acxj-jpn_73.jpg</t>
   </si>
   <si>
     <t>a01230.jpg</t>
@@ -715,49 +715,49 @@
     <t>a01232.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-74.jpg</t>
+    <t>dmg-tra_74.jpg</t>
   </si>
   <si>
     <t>a01234.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-75.jpg</t>
+    <t>dmg-tra_75.jpg</t>
   </si>
   <si>
     <t>a01236.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-76.jpg</t>
+    <t>dmg-tra_76.jpg</t>
   </si>
   <si>
     <t>a01238.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-77.jpg</t>
+    <t>dmg-tra_77.jpg</t>
   </si>
   <si>
     <t>a01240.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-78.jpg</t>
+    <t>dmg-tra_78.jpg</t>
   </si>
   <si>
     <t>a01242.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-79.jpg</t>
+    <t>dmg-tra_79.jpg</t>
   </si>
   <si>
     <t>a01244.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-80.jpg</t>
+    <t>dmg-tra_80.jpg</t>
   </si>
   <si>
     <t>a01246.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-81.jpg</t>
+    <t>dmg-tra_81.jpg</t>
   </si>
   <si>
     <t>a01248.jpg</t>
@@ -823,7 +823,7 @@
     <t>a01268.jpg</t>
   </si>
   <si>
-    <t>dmg-coj-82.jpg</t>
+    <t>dmg-coj_82.jpg</t>
   </si>
   <si>
     <t>a01270.jpg</t>
@@ -835,13 +835,13 @@
     <t>a01272.jpg</t>
   </si>
   <si>
-    <t>dmg-hjj-83.jpg</t>
+    <t>dmg-hjj_83.jpg</t>
   </si>
   <si>
     <t>a01274.jpg</t>
   </si>
   <si>
-    <t>dmg-hjj-84.jpg</t>
+    <t>dmg-hjj_84.jpg</t>
   </si>
   <si>
     <t>a01276.jpg</t>
@@ -877,13 +877,13 @@
     <t>a01286.jpg</t>
   </si>
   <si>
-    <t>dmg-ugj-85.jpg</t>
+    <t>dmg-ugj_85.jpg</t>
   </si>
   <si>
     <t>a01288.jpg</t>
   </si>
   <si>
-    <t>dmg-ugj-86.jpg</t>
+    <t>dmg-ugj_86.jpg</t>
   </si>
   <si>
     <t>a01290.jpg</t>
@@ -901,13 +901,13 @@
     <t>a01294.jpg</t>
   </si>
   <si>
-    <t>dmg-sdj-87.jpg</t>
+    <t>dmg-sdj_87.jpg</t>
   </si>
   <si>
     <t>a01296.jpg</t>
   </si>
   <si>
-    <t>dmg-sdj-88.jpg</t>
+    <t>dmg-sdj_88.jpg</t>
   </si>
   <si>
     <t>a01298.jpg</t>
@@ -919,7 +919,7 @@
     <t>a01300.jpg</t>
   </si>
   <si>
-    <t>dmg-lhj-89.jpg</t>
+    <t>dmg-lhj_89.jpg</t>
   </si>
   <si>
     <t>a01302.jpg</t>
@@ -949,13 +949,13 @@
     <t>a01310.jpg</t>
   </si>
   <si>
-    <t>dmg-qqj-90.jpg</t>
+    <t>dmg-qqj_90.jpg</t>
   </si>
   <si>
     <t>a01312.jpg</t>
   </si>
   <si>
-    <t>dmg-qqj-91.jpg</t>
+    <t>dmg-qqj_91.jpg</t>
   </si>
   <si>
     <t>a01314.jpg</t>
@@ -967,7 +967,7 @@
     <t>a01316.jpg</t>
   </si>
   <si>
-    <t>dmg-gwj-92.jpg</t>
+    <t>dmg-gwj_92.jpg</t>
   </si>
   <si>
     <t>a01318.jpg</t>
@@ -979,7 +979,7 @@
     <t>a01320.jpg</t>
   </si>
   <si>
-    <t>dmg-cga-93.jpg</t>
+    <t>dmg-cga_93.jpg</t>
   </si>
   <si>
     <t>a01322.jpg</t>
@@ -1015,7 +1015,7 @@
     <t>a01332.jpg</t>
   </si>
   <si>
-    <t>dmg-amoj-jpn-94.jpg</t>
+    <t>dmg-amoj-jpn_94.jpg</t>
   </si>
   <si>
     <t>a01334.jpg</t>
@@ -1075,7 +1075,7 @@
     <t>a01352.jpg</t>
   </si>
   <si>
-    <t>dmg-awa-95.jpg</t>
+    <t>dmg-awa_95.jpg</t>
   </si>
   <si>
     <t>a01354.jpg</t>
@@ -1087,7 +1087,7 @@
     <t>a01356.jpg</t>
   </si>
   <si>
-    <t>dmg-qrj-96.jpg</t>
+    <t>dmg-qrj_96.jpg</t>
   </si>
   <si>
     <t>a01358.jpg</t>
@@ -1099,13 +1099,13 @@
     <t>a01360.jpg</t>
   </si>
   <si>
-    <t>dmg-nma-97.jpg</t>
+    <t>dmg-nma_97.jpg</t>
   </si>
   <si>
     <t>a01362.jpg</t>
   </si>
   <si>
-    <t>dmg-nma-98.jpg</t>
+    <t>dmg-nma_98.jpg</t>
   </si>
   <si>
     <t>a01364.jpg</t>
@@ -1153,7 +1153,7 @@
     <t>a01378.jpg</t>
   </si>
   <si>
-    <t>dmg-x4j-99.jpg</t>
+    <t>dmg-x4j_99.jpg</t>
   </si>
   <si>
     <t>a01380.jpg</t>
@@ -1165,7 +1165,7 @@
     <t>a01382.jpg</t>
   </si>
   <si>
-    <t>dmg-x3j-100.jpg</t>
+    <t>dmg-x3j_100.jpg</t>
   </si>
   <si>
     <t>a01384.jpg</t>
@@ -1189,19 +1189,19 @@
     <t>a01390.jpg</t>
   </si>
   <si>
-    <t>dmg-ncj-101.jpg</t>
+    <t>dmg-ncj_101.jpg</t>
   </si>
   <si>
     <t>a01392.jpg</t>
   </si>
   <si>
-    <t>dmg-ncj-102.jpg</t>
+    <t>dmg-ncj_102.jpg</t>
   </si>
   <si>
     <t>a01394.jpg</t>
   </si>
   <si>
-    <t>dmg-ncj-103.jpg</t>
+    <t>dmg-ncj_103.jpg</t>
   </si>
   <si>
     <t>a01396.jpg</t>
@@ -1243,19 +1243,19 @@
     <t>a01408.jpg</t>
   </si>
   <si>
-    <t>dmg-mea-104.jpg</t>
+    <t>dmg-mea_104.jpg</t>
   </si>
   <si>
     <t>a01410.jpg</t>
   </si>
   <si>
-    <t>dmg-mea-105.jpg</t>
+    <t>dmg-mea_105.jpg</t>
   </si>
   <si>
     <t>a01412.jpg</t>
   </si>
   <si>
-    <t>dmg-mea-106.jpg</t>
+    <t>dmg-mea_106.jpg</t>
   </si>
   <si>
     <t>a01414.jpg</t>
@@ -1405,7 +1405,7 @@
     <t>a01462.jpg</t>
   </si>
   <si>
-    <t>dmg-saj-107.jpg</t>
+    <t>dmg-saj_107.jpg</t>
   </si>
   <si>
     <t>a01464.jpg</t>
@@ -1417,19 +1417,19 @@
     <t>a01466.jpg</t>
   </si>
   <si>
-    <t>dmg-s2j-108.jpg</t>
+    <t>dmg-s2j_108.jpg</t>
   </si>
   <si>
     <t>a01468.jpg</t>
   </si>
   <si>
-    <t>dmg-s2j-109.jpg</t>
+    <t>dmg-s2j_109.jpg</t>
   </si>
   <si>
     <t>a01470.jpg</t>
   </si>
   <si>
-    <t>dmg-s2j-110.jpg</t>
+    <t>dmg-s2j_110.jpg</t>
   </si>
   <si>
     <t>a01472.jpg</t>
@@ -1441,13 +1441,13 @@
     <t>a01474.jpg</t>
   </si>
   <si>
-    <t>dmg-osj-111.jpg</t>
+    <t>dmg-osj_111.jpg</t>
   </si>
   <si>
     <t>a01476.jpg</t>
   </si>
   <si>
-    <t>dmg-osj-112.jpg</t>
+    <t>dmg-osj_112.jpg</t>
   </si>
   <si>
     <t>a01478.jpg</t>
@@ -1465,7 +1465,7 @@
     <t>a01482.jpg</t>
   </si>
   <si>
-    <t>dmg-azlj-jpn-113.jpg</t>
+    <t>dmg-azlj-jpn_113.jpg</t>
   </si>
   <si>
     <t>a01484.jpg</t>
@@ -1477,7 +1477,7 @@
     <t>a01486.jpg</t>
   </si>
   <si>
-    <t>dmg-amyj-jpn-114.jpg</t>
+    <t>dmg-amyj-jpn_114.jpg</t>
   </si>
   <si>
     <t>a01488.jpg</t>
@@ -1525,25 +1525,25 @@
     <t>a01502.jpg</t>
   </si>
   <si>
-    <t>dmg-am7j-jpn-115.jpg</t>
+    <t>dmg-am7j-jpn_115.jpg</t>
   </si>
   <si>
     <t>a01504.jpg</t>
   </si>
   <si>
-    <t>dmg-am7j-jpn-116.jpg</t>
+    <t>dmg-am7j-jpn_116.jpg</t>
   </si>
   <si>
     <t>a01506.jpg</t>
   </si>
   <si>
-    <t>dmg-am7j-jpn-117.jpg</t>
+    <t>dmg-am7j-jpn_117.jpg</t>
   </si>
   <si>
     <t>a01508.jpg</t>
   </si>
   <si>
-    <t>dmg-am7j-jpn-118.jpg</t>
+    <t>dmg-am7j-jpn_118.jpg</t>
   </si>
   <si>
     <t>a01510.jpg</t>
@@ -1555,7 +1555,7 @@
     <t>a01512.jpg</t>
   </si>
   <si>
-    <t>cgb-bm8j-jpn-119.jpg</t>
+    <t>cgb-bm8j-jpn_119.jpg</t>
   </si>
   <si>
     <t>a01514.jpg</t>
@@ -1567,7 +1567,7 @@
     <t>a01516.jpg</t>
   </si>
   <si>
-    <t>cgb-az7j-jpn-120.jpg</t>
+    <t>cgb-az7j-jpn_120.jpg</t>
   </si>
   <si>
     <t>a01518.jpg</t>
@@ -1585,7 +1585,7 @@
     <t>a01522.jpg</t>
   </si>
   <si>
-    <t>cgb-bd3j-jpn-121.jpg</t>
+    <t>cgb-bd3j-jpn_121.jpg</t>
   </si>
   <si>
     <t>a01524.jpg</t>
@@ -1609,7 +1609,7 @@
     <t>a01530.jpg</t>
   </si>
   <si>
-    <t>cgb-bhhj-jpn-122.jpg</t>
+    <t>cgb-bhhj-jpn_122.jpg</t>
   </si>
   <si>
     <t>a01532.jpg</t>
@@ -1639,19 +1639,19 @@
     <t>a01540.jpg</t>
   </si>
   <si>
-    <t>cgb-bxtj-jpn-123.jpg</t>
+    <t>cgb-bxtj-jpn_123.jpg</t>
   </si>
   <si>
     <t>a01542.jpg</t>
   </si>
   <si>
-    <t>cgb-bxtj-jpn-124.jpg</t>
+    <t>cgb-bxtj-jpn_124.jpg</t>
   </si>
   <si>
     <t>a01544.jpg</t>
   </si>
   <si>
-    <t>cgb-bxtj-jpn-125.jpg</t>
+    <t>cgb-bxtj-jpn_125.jpg</t>
   </si>
   <si>
     <t>a01546.jpg</t>
@@ -1669,61 +1669,61 @@
     <t>a01551.jpg</t>
   </si>
   <si>
-    <t>dmg-mmsa-jpn-126.jpg</t>
+    <t>dmg-mmsa-jpn_126.jpg</t>
   </si>
   <si>
     <t>a01554.jpg</t>
   </si>
   <si>
-    <t>dmg-mmsa-jpn-127.jpg</t>
+    <t>dmg-mmsa-jpn_127.jpg</t>
   </si>
   <si>
     <t>a01557.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-128.jpg</t>
+    <t>dmg-apbj-jpn_128.jpg</t>
   </si>
   <si>
     <t>a01560.jpg</t>
   </si>
   <si>
-    <t>dmg-apsj-jpn-129.jpg</t>
+    <t>dmg-apsj-jpn_129.jpg</t>
   </si>
   <si>
     <t>a01563.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-130.jpg</t>
+    <t>dmg-apaj-jpn_130.jpg</t>
   </si>
   <si>
     <t>a01566.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-131.jpg</t>
+    <t>dmg-mla_131.jpg</t>
   </si>
   <si>
     <t>a01569.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-132.jpg</t>
+    <t>dmg-l6j_132.jpg</t>
   </si>
   <si>
     <t>a01572.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-133.jpg</t>
+    <t>dmg-l6j_133.jpg</t>
   </si>
   <si>
     <t>a01575.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-134.jpg</t>
+    <t>dmg-tra_134.jpg</t>
   </si>
   <si>
     <t>a01578.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-135.jpg</t>
+    <t>dmg-apaj-jpn_135.jpg</t>
   </si>
   <si>
     <t>a01581.jpg</t>
